--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/1_fold/19.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/1_fold/19.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-1.116755966552092</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>11.07072659323259</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>7.208019491379715</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-11.38949006934119</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-7.520959445135635</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-7.628908365548878</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-2.404366316551122</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>10.59965645364923</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>6.266710632526044</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-11.91030986496336</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-7.505619737570593</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-7.479374334085538</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-3.908326443012567</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>10.04943510236812</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>5.167239049059885</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-12.47824390416133</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-7.517844783701109</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-7.35949285901745</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-5.420078952816566</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>9.496362920392095</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4.062070835808221</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-13.07899126601887</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-7.503976256643439</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-7.232189140850315</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-6.875963478402328</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>8.963729949023495</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2.997744969366649</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-13.70263459245921</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-7.430502967301033</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-7.233553085612495</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-8.198188259793909</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>8.479996176356021</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>2.031131195160272</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-14.44456165997989</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-7.331109233557627</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-7.163614500549852</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-9.361472959097455</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8.054410372641001</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1.180710729975146</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-15.08713400777228</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-7.246477006932109</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-7.180984932994408</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-10.34662895990926</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>7.693992661790699</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.4605114313925391</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-15.71597149389941</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-7.181732639096702</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-7.110675566831366</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-11.16117096720792</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>7.395993801285282</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-0.1349603333220389</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-16.31969406318</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-7.058356012307445</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-6.947078337917202</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-11.82256451942054</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>7.154024052470685</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-0.6184727638387041</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-17.01627752046188</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-6.966795734908612</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-6.84497780294054</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-12.3669690070661</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>6.954854561494479</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-1.016460219454326</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-17.72170508748073</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-6.806082932540376</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-6.565537964516198</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-12.83228823984151</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>6.784618281602428</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-1.356632318883954</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-18.40449481293525</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-6.69055964291336</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-6.331104992698249</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-13.2636788114875</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>6.626794746865867</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-1.672000836010763</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-19.1335338434301</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-6.53367182702755</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-5.936643560057469</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-13.70469034655183</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>6.465451398405843</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-1.994402768251382</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-19.92812706365999</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-6.354288037583915</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-5.595018434223457</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-14.20734980989998</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>6.281554256259937</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-2.361872481302852</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-20.70778537661257</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-6.154566171666746</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-5.308782045806992</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-14.80624348467333</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>6.062449985335671</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-2.799694312710162</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-21.55923811648277</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-5.948094768151567</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-4.962760515496828</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-15.5208310494523</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>5.801019294066978</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-3.322094280335175</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-22.36598576094924</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-5.722783804794518</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-4.755626302195708</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-16.3496484146013</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>5.497797817251302</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-3.9280020599574</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-23.11912533011292</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-5.462760933790558</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-4.645491073195235</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-17.27805650669301</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>5.158141235947574</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-4.606715742025908</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-23.85896024264206</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-5.28296213227812</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-4.557781479677784</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-18.27256335616558</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>4.794302532415864</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-5.333750988053477</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-24.46892304910521</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-5.041980942762313</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-4.569851728713966</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-19.282546257966</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>4.424801940464042</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-6.072100017910364</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-25.02483398981282</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-4.843957230020883</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-4.673541325549479</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-20.25362191642415</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>4.069535499823647</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-6.782005867862958</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-25.48931956877957</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-4.671631959216501</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-4.830497600111865</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-21.12906560248831</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>3.749255859797509</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-7.42199986691735</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-25.8589200318636</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-4.507551429172184</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-4.987311521216063</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-21.86562388525416</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>3.479787217304805</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-7.960461550321858</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-26.08387197819462</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-4.391032441927003</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-5.179352957403645</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-22.42721825517985</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>3.274328836024843</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-8.371015686900362</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-26.22156475887185</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-4.328895774675609</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-5.396796209514055</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-22.79903196943647</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>3.138301397076401</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-8.64283048170479</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-26.39494191472951</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-4.257435832305707</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-5.534399034853863</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-22.97436715365371</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>3.074155306837879</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-8.771009446849453</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-26.25640230941286</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-4.257324002706329</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-5.643617242739958</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-22.96945669065361</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>3.075951791691297</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-8.767419647867895</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-26.2163977700291</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-4.243802561590432</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-5.72995958094969</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-22.8077504275818</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>3.135111763430261</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-8.649204119418835</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-25.98734755472113</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-4.212717246432979</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-5.78160740190786</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-22.52119281205225</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>3.23994839816707</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-8.439715882492068</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-25.7465097215712</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-4.199187521643054</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-5.828928339846202</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-22.14745460762769</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>3.37667990869434</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-8.166494187188697</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-25.55574322552408</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-4.18522290396666</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-5.840720503057086</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-21.7257987665878</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>3.530942008167952</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-7.858242254794286</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-25.27217018316376</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-4.17284543823403</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-5.795895716455354</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-21.29435794015114</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>3.688783928537444</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-7.542836998851535</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-24.92215989863691</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-4.132815411861146</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-5.72078274871483</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-20.87734693772671</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>3.841346721404105</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-7.237980680461539</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-24.65845780022225</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-4.125627667907055</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-5.621327339624045</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-20.50360372462361</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>3.978080064348223</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-6.964755323558615</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-24.24831390934754</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-4.090074967346303</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-5.429775864176275</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-20.18727080829691</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>4.093809944159259</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-6.733499822633534</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-23.9013739301979</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-4.086446718122041</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-5.329674898705332</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-19.94104237577704</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>4.183892213284088</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-6.553494276054337</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-23.49201799380052</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-4.088773602156505</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-5.171195773194881</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-19.75792227295319</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>4.250886403256092</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-6.41962413822699</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-23.11442477409296</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-4.075929765576099</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-5.021473040635803</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-19.62693418712418</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>4.29880818011605</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-6.323865164562931</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-22.73461713059563</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-4.077962579182569</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-4.848364614387312</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-19.52933900895686</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>4.334513216350017</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-6.252518110082997</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-22.30697521615529</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-4.122036695215919</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-4.687683976093246</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-19.4431864651848</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>4.366031983514475</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-6.189536205141431</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-21.92507088919242</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-4.159147554861337</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-4.556884321836641</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-19.338517269077</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>4.40432503763649</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-6.113017682635428</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-21.45368844431199</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-4.202820741071733</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-4.432775280114903</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-19.18396926907566</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>4.460866170544452</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-6.000035209700591</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-21.06206601212866</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-4.282354780516721</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-4.340609692301594</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-18.96459171884532</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>4.541125088320734</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-5.839659027988794</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-20.58677549417961</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-4.324072191289107</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-4.213921735604764</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-18.67353993782991</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>4.647605906146576</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-5.626885326802601</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-20.11809201980775</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-4.420079144906167</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-4.099678119590054</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-18.31784570949104</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>4.777736057548912</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-5.366854698609258</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-19.7645404686069</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-4.4961936837124</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-4.03951226495934</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-17.90312805117475</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>4.929459834226295</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-5.063674931767166</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-19.3084642658724</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-4.551129353131258</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-3.953173237295148</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-17.44772779719677</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>5.096067271956096</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-4.730754111898007</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-18.88723919910092</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-4.63071475135522</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-3.868198154393135</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-16.96718260220732</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>5.271873945209355</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-4.37945105727168</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-18.46005918900936</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-4.709243152773211</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-3.915082100320293</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-16.48364974519357</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>5.448773649725386</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-4.025963869277104</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-17.99498037994761</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-4.756800553735332</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-3.828445123557566</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-16.01136363906069</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>5.621558748835119</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-3.680698629978025</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-17.61404514642238</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-4.807384809187284</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-3.849467087731938</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-15.56211613135794</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>5.785915214408086</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-3.352275781544996</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-17.23999319338881</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-4.869382310715008</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-3.826571354782339</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-15.14632736277447</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>5.938030855024021</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-3.048312978450276</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-16.88356606119309</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-4.894727868138465</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-3.8509137961326</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-14.77136502051155</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>6.075210214376352</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-2.774196375932386</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-16.50899333364863</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-4.88714582130064</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-3.869558788609775</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-14.44038430611867</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>6.196298967141176</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-2.532232587300228</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-16.19780112831554</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-4.922421847148858</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-3.935077795377491</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-14.14583567606389</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>6.304059101466049</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-2.316902511059398</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-15.89474206230021</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-4.952286977121988</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-4.036625469249095</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-13.8876125472895</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>6.398529610588237</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-2.128128229556897</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-15.66336873982631</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-4.962306080858848</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-4.073230171276817</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-13.66092583388733</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>6.481462573750684</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-1.962408676657957</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-15.37534420751645</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-4.956878617635706</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-4.19408825727899</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-13.46785464527845</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>6.552097352173811</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>-1.821263787424134</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-15.15553207918413</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-4.950544092106498</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-4.271538470170239</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-13.30521514689153</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>6.611598746525723</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>-1.702366016346694</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-14.85875853509146</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-4.973917306743889</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-4.375522705558748</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-13.17529185798937</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>6.659130969172362</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>-1.607385463561373</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-14.61372733501042</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-5.009201616266134</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-4.48993515939596</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-13.07724478115415</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>6.695001331794519</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-1.535708048099647</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-14.39544583089269</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-4.984082203143641</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-4.620158778728731</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-13.01184475489617</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>6.718927824384552</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>-1.487897292240202</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-14.28601525649734</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-5.032063728215998</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-4.7843717691132</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-12.97665587447906</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>6.731801618704305</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-1.462172425342543</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-14.04941607501859</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-5.030072332979667</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-4.822449663905897</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-12.96835557830765</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>6.734838268476539</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>-1.456104485365776</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-13.98581818605486</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-5.085754361428447</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-4.917740406708279</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-12.98974805334868</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>6.727011866488063</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-1.471743476050301</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-13.88754577161441</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-5.124770466100304</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-4.979793272296378</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-13.04558536004759</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>6.70658387920089</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>-1.512563396028615</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-13.78216365298191</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-5.143238088978316</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-5.049175685708423</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-13.14393434621505</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>6.670603063543558</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>-1.584461522615416</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-13.75831670885752</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-5.199800671976272</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-5.091620190067419</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-13.28533583913697</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>6.618871558738494</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>-1.687833228149344</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-13.74992997499531</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-5.27062608491563</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-5.086018747014973</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-13.47709074387848</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>6.548718340614355</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>-1.828015846720224</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-13.68966504290124</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-5.324977755315514</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-5.103558017282031</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-13.71781504108105</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>6.460649750388743</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>-2.003997589565234</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-13.80890429199721</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-5.379943245960872</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-5.068572172023013</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-14.01385257669154</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>6.352344902402664</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>-2.220416131730237</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-13.85814238988261</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-5.449907156801318</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-5.07313079323059</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-14.3645331525874</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>6.224048987542579</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>-2.476781524194606</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-13.96967870469153</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-5.529688878099744</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-5.031146454701553</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-14.7702655405834</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>6.075612457308947</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>-2.773392600010189</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-14.13057991465806</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-5.628618311913881</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-4.907884912637869</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-15.22881586047196</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>5.907852573120332</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-3.108616278774194</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-14.33784364151513</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-5.682955071700515</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-4.890382058371742</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-15.73957748751356</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>5.720991267645041</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-3.482009086852461</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-14.68253749755697</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-5.80232778464834</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-4.871909214262609</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-16.30454719488072</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>5.514298024685305</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-3.895030767308099</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-15.04828422926048</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-5.860552901023715</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-4.778621351511486</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-16.92325343975955</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>5.28794535740798</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-4.347336598286369</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-15.44030063868248</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-5.937187654558906</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-4.74912108021104</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-17.60099267832142</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>5.039995565989557</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-4.842798559470131</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-15.90480433154526</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-6.039727113514442</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-4.611680471602658</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-18.33726599130443</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>4.770631179225598</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-5.381051915424419</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-16.50673815359281</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-6.129277771594082</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-4.580369331892231</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-19.14177921348803</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>4.476301333344059</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-5.96919212655809</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-17.17682098098181</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-6.218466433118699</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-4.456862809458641</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-20.01421347174204</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>4.157122687557827</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-6.606986080344304</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-17.89671249398116</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-6.278820039535567</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-4.458441939680873</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-20.95827625294721</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>3.811738863858277</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-7.297144138846345</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-18.81028231181457</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-6.36705442181216</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-4.400298828374654</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-21.97012548086273</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>3.441555479551183</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-8.03685754831206</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-19.70124145892768</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-6.43967366436228</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-4.428501365823704</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-23.05660848259756</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>3.044067451218259</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-8.831132054204076</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-20.71337804201205</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-6.521674996116507</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-4.403639168823778</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-24.21643710771797</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>2.61974604658784</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-9.679025952834774</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-21.89877404062988</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-6.583686579890077</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-4.377273984149022</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-25.4450553668259</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>2.170258066926072</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-10.5772085835107</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-23.24855364572614</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-6.648154687196651</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-4.423131660959006</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-26.73949486620211</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>1.696689494217851</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-11.52350989897765</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-24.57219489885014</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-6.729032338568981</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-4.520567637270836</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-28.10213058703449</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>1.198171445481854</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-12.5196661316539</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-26.10084469877537</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-6.795270667015336</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-4.649698776575648</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-29.54891138723059</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.6688690571503069</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-13.57733671036974</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-27.81225918117618</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-6.840517337107349</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-4.796806178158702</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-31.08488759406821</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.1069346752526515</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-14.70021368202954</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-29.60201626390968</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-6.916688204896972</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-5.005367236587248</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-32.72401287030671</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>-0.4927366248987283</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-15.89849788601674</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-31.46548331806603</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-6.941166461649698</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-5.232937447502289</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-34.46514170677969</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-1.129725760649749</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-17.17135189668762</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-33.47663749503454</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-7.021963761383955</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-5.551451654926648</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-36.32432361260421</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-1.809904418648485</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-18.53050872404179</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-35.5773309243197</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-7.071093403676592</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-5.87327309734474</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-38.3097935799011</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-2.536285357287126</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-19.98198856746327</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-37.818615357647</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-7.093306489766362</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-6.264010166253839</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-40.3886845986949</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-3.29684423474764</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-21.50176396580751</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-40.06450751327711</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-7.133164215719463</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-6.682059235861926</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-42.57626896429488</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-4.097168395278306</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-23.10099974612771</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-42.38193597280639</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-7.151767690851534</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-7.161641415408447</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-44.79377795103128</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-4.908440429484982</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-24.72211195123244</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-44.57335511459822</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-7.115300472678092</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-7.64829823077239</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-47.11279613399764</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-5.756849437029188</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-26.41743255771143</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-47.09137233029726</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-7.100997052733953</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-8.13364738064832</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-49.33913033807755</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-6.571350162559961</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-28.04499644695085</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-49.25165142057535</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-7.042442660315965</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-8.580220110622768</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-51.70188268623929</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-7.435759242877092</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-29.77228895947504</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-51.69604017738367</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-6.968574239722424</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-9.076643035327562</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-57.73097887959781</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-9.641494219587299</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-34.17986587720764</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-57.26220105715085</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-9.469992620323328</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-33.83716537227321</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-56.62777852685388</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-9.237890175742905</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-33.37337013482009</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-55.89147002807843</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-8.968512916314362</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-32.83509105625637</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-55.10359956149884</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-8.680271795337401</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-32.25911754857131</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-54.35888880287327</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-8.407820582891615</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-31.71469598937957</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-53.72948566858314</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-8.177554476126872</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-31.25457018649362</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-53.26413271811583</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-8.007305860672414</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-30.91437343771096</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-52.96916988592999</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-7.899394191175665</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-30.69874055858</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-52.80643401939305</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-7.83985754069376</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-30.57977233746827</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-52.70269978973467</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-7.801906542517345</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-30.50393732313814</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-52.56237606328447</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-7.75056933681237</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-30.40135351988195</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-52.31765402435375</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-7.661038179317164</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-30.2224492238716</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-51.92494642401088</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-7.517366746333497</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-29.93535993234626</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-51.38709070703362</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-7.320593112390294</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-29.54215996220299</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-50.73600983134901</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-7.082396239408461</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-29.06618662437405</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-50.03586773787448</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>-6.826250400178852</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-28.55434703327071</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-49.35400509711331</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>-6.576792068813085</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-28.05587065470608</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-48.75173895188897</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>-6.356453985092819</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-27.61558337533794</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-48.27418341581871</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>-6.181741073663058</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-27.26646591391192</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-47.94154595156878</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>-6.060046201674038</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-27.02329095660801</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-47.76181754816567</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>-5.994292859385149</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-26.89190032409942</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-47.7229853647169</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>-5.980086168612936</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-26.86351201680678</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-47.80792496295594</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>-6.011161181638926</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-26.92560719668006</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-47.98004349814808</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>-6.074130466095136</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-27.05143462727613</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-48.2037654996518</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>-6.1559787942608</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-27.21498682451971</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-48.43861268308868</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>-6.241897252032169</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-27.38667209735565</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-48.65651542002118</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>-6.321616611776729</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-27.54597011530276</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-48.83186539063573</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>-6.385768111594508</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-27.67415989005824</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-48.94654722488293</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>-6.427724272995778</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-27.75799816188214</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-48.9949395921162</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>-6.445428541361876</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-27.79337545127533</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-48.98282935547005</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>-6.440998031101301</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-27.78452225043094</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-48.92713438554716</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>-6.420622117490727</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-27.74380638589783</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-48.84259313242244</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>-6.389692838372977</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-27.68200241662641</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-48.75164766046309</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>-6.356420586274049</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-27.61551663664801</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-48.65962366297229</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>-6.322753757374263</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-27.54824239948046</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-48.56651348934614</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>-6.288689552712709</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-27.48017411214201</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-48.46260213551204</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>-6.250673753946437</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-27.40420961100267</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-48.34459370056474</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>-6.207500561122478</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-27.31793942434611</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-48.20580972915843</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>-6.156726672280753</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-27.21648126058426</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-48.04581367742909</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>-6.098192378562948</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-27.09951598388036</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-47.87020774105074</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>-6.033947234089327</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-26.97113908509234</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-47.68604506155782</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>-5.966571619148954</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-26.83650677052835</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-47.50578655094593</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>-5.90062433800517</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-26.70472860260444</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-47.342419732702</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>-5.840856854873707</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-26.58529912360416</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-47.22318840052903</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>-5.797236267100807</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-26.49813493668424</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-47.17055120090076</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>-5.777979033748975</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-26.45965445824185</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-47.2135939858975</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>-5.793726166207555</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-26.49112093008809</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-47.37085433830648</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>-5.851259608805525</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-26.60608627101527</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-47.65343818940875</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>-5.954642448329028</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-26.81266948340694</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-48.0472570447507</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>-6.098720432135726</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-27.10057115903208</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-48.52733717392423</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>-6.274356961821234</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-27.45153422681962</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-49.06466054214644</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>-6.470935836843506</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-27.84434502286289</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-49.62967311038851</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>-6.677644760384191</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-28.25739803680482</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-50.19393313861812</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>-6.88407836839273</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-28.66990090560356</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-50.72626758465439</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>-7.07883205439683</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-29.05906454499748</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-51.20540608083491</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>-7.254124089192675</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-29.40933923102567</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-51.60717855910755</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>-7.401111892933764</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-29.70305541080157</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-51.91875858414819</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>-7.515102935245118</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-29.93083630570725</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-52.12208079192412</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>-7.589488032256398</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-30.07947521295223</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-52.21373572419967</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>-7.623019839251102</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-30.14647964461797</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-52.20442704029325</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>-7.619614272476077</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-30.13967452175965</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-52.12632168571084</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>-7.591039556308742</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-30.08257552267784</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-52.01847150877842</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-7.551582745557194</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-30.00373154089755</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-51.91394538548863</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>-7.513342034391533</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-29.927317611921</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-51.83813326295335</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>-7.485606293416141</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-29.87189508246477</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-51.80567169193913</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>-7.473730280778639</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-29.8481640178861</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-51.82687284576761</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>-7.48148668821457</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-29.86366314300317</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-51.8923702728071</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>-7.505448814721136</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-29.91154510380322</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-51.99553255404832</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>-7.543190566505034</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-29.98696199465998</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-52.1165726672681</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-7.58747289386414</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-30.0754484928079</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-52.23894262816398</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-7.632241743819468</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-30.16490717745497</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-52.33314588068401</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>-7.6667058496057</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-30.23377456123299</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-52.37629565487131</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-7.682492123884578</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-30.26531924763605</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-52.36166957770303</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-7.677141197485742</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-30.25462683901352</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-52.30200474426172</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>-7.655312915802985</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-30.2110088017087</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-52.20935233663079</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>-7.621416184081726</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-30.14327516466767</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-52.08172054323052</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>-7.574722301314792</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-30.04996981200476</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-51.92797174856995</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>-7.51847355637298</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-29.93757159894894</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-51.75711914798778</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>-7.455967412022339</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-29.81266963113989</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-51.58331260003292</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-7.392380570859044</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-29.68560817709301</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-51.40147396582684</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>-7.325855204083941</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-29.55267485820492</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-51.20476354949023</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-7.253889020151622</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-29.4088695078312</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-50.97731845400867</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>-7.170678604146397</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-29.24259553894008</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-50.70719021695895</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-7.071852630642445</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-29.04511801589779</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-50.38440689682754</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-6.953762881154487</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-28.80914694069626</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-50.00950389011918</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>-6.816605229617697</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-28.535073715496</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-49.60031337189097</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>-6.666903548097279</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-28.23593457004922</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-49.1772049506726</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>-6.51211002454228</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-27.92662072743469</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-48.75621493638168</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>-6.358091516695263</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-27.61885554836381</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-48.33638801112997</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>-6.204498523070033</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-27.31194064672059</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-47.92413928353532</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>-6.053678000657161</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-27.01056579419918</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-47.51603853757096</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>-5.904375010536238</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-26.71222332787672</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-47.10827538416608</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>-5.755195528100782</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-26.41412765893898</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-46.66930271800008</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>-5.594598096490934</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-26.09321624388474</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-46.18799172000552</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-5.418511255461365</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-25.74135334819092</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-45.61034816026996</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>-5.207181304351339</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-25.31906643504266</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-44.94860716300644</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>-4.965084443333408</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-24.83530000446738</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-44.11602670795902</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>-4.660486246236075</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-24.22664121413912</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-43.19494134099344</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>-4.323508671937299</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-23.55328081773827</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-42.01745074756501</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>-3.892725665102314</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-22.69247511917279</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-24.35343393931158</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>2.56962597992223</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-9.779177626214883</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-25.42883343322526</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>2.176192834789326</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-10.56534952241661</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-26.72660330427377</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>1.701405851054403</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-11.5140855094893</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-28.06610389335228</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>1.211351752413698</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-12.49332878051479</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-29.42526891858838</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.7141034519823782</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-13.48694775763762</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-30.73795727085434</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.2338585663057054</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-14.44658991561104</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-31.96199615468751</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>-0.2139540564051899</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-15.3414247893245</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-33.03128727670729</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>-0.6051524636760616</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-16.1231311540268</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-33.88787010335443</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>-0.9185318891471972</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-16.74933690257914</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-34.46531508570574</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>-1.129789191046138</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-17.17147864552824</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-34.70801472486541</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>-1.218580456894429</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-17.34890446412449</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-34.56263630301375</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>-1.165393999148016</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-17.24262542064272</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-34.00315127486778</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>-0.9607073171065712</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-16.83361332052237</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-33.02007839696611</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>-0.6010517133642495</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-16.11493689106658</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-31.63222039217283</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>-0.09330613331330177</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-15.10034188199114</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-29.88551124149895</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.5457245512568425</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-13.82340837693557</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-27.86212884595727</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>1.285975689731352</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-12.34421261420084</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-25.67063533449252</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>2.087730004879966</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-10.74211904881154</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-23.43028755970338</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>2.907357572323797</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-9.104310524420816</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-21.26123098395034</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>3.700903371256657</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-7.51861950375398</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-19.27252654464938</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>4.428467636185305</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-6.064775096276955</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-17.56722673762389</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>5.052348780141306</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-4.818113934104909</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-16.22357244239737</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>5.543922505379399</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-3.835834091965965</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-15.29967178372842</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>5.881930049541087</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-3.160415573695684</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-14.82000494004617</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>6.057415379405889</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-2.809754638687803</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-14.78448776101488</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>6.07040928123643</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-2.78378976875361</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-15.1525097472643</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>5.93576903977488</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-3.052832616933389</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-15.85819687313529</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>5.677594559516561</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-3.568725909622323</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-16.81361575764491</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>5.328056124005484</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-4.267185859020587</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-17.92887520230067</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>4.920040281117882</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-5.082497412842348</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-19.12038554960584</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>4.484128170268126</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-5.953552266770028</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-20.31927217321742</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>4.045517460801739</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-6.829999555010293</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-21.4779486154923</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>3.621617580379998</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-7.677051149197324</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-22.55996420803644</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>3.225763946389304</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-8.468059751046766</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-23.53907167658465</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>2.867559081170203</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-9.183837263952686</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-24.39327622867754</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>2.555049743553083</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-9.808304372467912</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-25.11311094697968</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>2.29169938975405</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-10.33454027702456</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-25.68835262047748</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>2.08124816479381</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-10.75507128879043</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-26.11243184910875</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>1.92609947293537</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-11.06509484115372</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-26.38076841379001</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>1.827928979835639</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-11.26126256028476</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-26.49178570264353</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>1.78731348637022</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-11.34242186246326</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-26.43773663213724</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>1.807087250372478</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-11.30290923437635</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-26.20747304824095</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>1.891328805752235</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-11.1345748066567</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-25.79942332448334</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>2.04061312948231</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-10.83626964017049</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-25.22193014429664</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>2.251888064480462</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-10.4140926621447</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-24.49735477890045</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>2.516972776261559</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-9.884391102697709</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-23.65274658809849</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>2.825971300803267</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-9.266939423885983</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-22.72723955378391</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>3.16456653486634</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-8.59034656306255</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-21.76043303658973</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>3.518271117161064</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-7.8835616731826</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-20.79616627617069</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>3.871046533595498</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-7.178633475081945</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-19.87376900045429</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>4.208504067564038</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-6.504314006451549</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-19.02854448377026</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>4.517728073921185</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-5.886411761975502</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-18.29355699285844</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>4.786622044784435</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-5.349098407557023</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-17.69803039241333</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>5.00449447707538</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-4.913738079269501</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-17.26552787691829</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>5.162724814649599</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-4.597556674458422</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-17.00732155115909</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>5.257189176416178</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-4.408794676817299</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-16.93579500994008</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>5.283357044479664</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-4.356505125950713</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-17.05408236929583</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>5.240081807617281</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-4.442979220580401</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-17.36716878883902</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>5.125539653342135</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-4.671861366722672</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-17.86845594141398</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>4.942144568847038</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-5.038327850584576</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-18.54824245750174</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>4.6934457842958</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-5.535286476090476</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-19.38620338618894</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>4.38687914972162</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-6.147878667157518</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-20.36009621401013</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>4.030582052279593</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-6.859844011644562</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-21.44044662475026</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>3.635337622327097</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-7.649635280638831</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-22.59461308449325</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>3.213087711634801</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-8.493389847498806</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-23.79203187605247</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>2.7750140061229</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-9.36876407562101</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-25.00187603385194</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>2.332394500704089</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-10.25322188039856</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-26.19382410571606</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>1.896322249040703</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-11.12459673331124</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-27.33188869938808</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>1.479963179702399</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-11.95658001456709</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-28.38611867182437</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>1.09427486936154</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-12.72727591051425</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-29.32271076207349</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.7516241857236968</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-13.41197251277784</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-30.12027080537574</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.4598381489581586</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-13.99502959540279</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-30.7586372064584</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.2262928457042941</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-14.46170800361386</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-31.23004220563672</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.05383009813209853</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-14.80632910877568</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-31.53400803000719</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>-0.0573753013234751</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-15.02854363452014</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-31.67908059247818</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>-0.1104498609159587</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-15.1345990791899</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-31.68376963443432</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>-0.112165339242762</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-15.13802700809157</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-31.57012467476312</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>-0.07058851670844779</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-15.05494674448337</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-31.36940416744306</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.002844752448309686</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-14.90820981300863</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-31.10605708204096</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.09918985271822851</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-14.71568965779049</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-30.80708266245359</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.2085691549015178</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-14.49712410360057</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-30.48896372626037</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.3249524471581904</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-14.26456293103154</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-30.17430051788706</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.4400714670466792</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-14.03452807180776</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-29.88169911390432</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.5471192118994169</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-13.82062151717173</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-29.62981241715858</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.6392715477324556</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-13.63647949076264</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-29.42487582778703</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.7142472636088211</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-13.48666038820662</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-29.2652814822244</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.7726345937828633</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-13.36998877920535</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-29.15174348764312</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.8141722833140604</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-13.28698671253517</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-29.08653845916872</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.8380274362840525</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-13.23931851000418</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-29.08033046436851</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.8402986210233413</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-13.23478014907755</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-29.13735470987322</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.8194363941162959</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-13.27646778187972</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-29.27438203140707</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.7693051727559407</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-13.37664174496172</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-29.50078296718737</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.6864767608688273</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-13.54215237983889</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-29.83536591359545</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.56407013741571</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-13.78674958385758</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-30.29261433955319</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.396786548991349</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-14.12102151173642</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-30.86593157041995</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.1870393782186399</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-14.54014565775524</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-31.56990892865826</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>-0.07050958634901913</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-15.0547890230735</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-32.36346178917424</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>-0.3608296018492989</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-15.63491665063795</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-33.27274037164861</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>-0.6934876833618372</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-16.29964568520161</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-34.18682995326937</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>-1.027905861039669</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-16.96789180559518</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-35.20462486376408</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>-1.400264463589225</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-17.71195181237097</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>